--- a/BOTW Instant Start.xlsx
+++ b/BOTW Instant Start.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helper EX\The Legend of Zelda Breath of the Wild (Saves)\BOTW Instant Start\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,10 +305,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,10 +339,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -346,8 +355,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -805,22 +820,22 @@
       <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>0.24</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>0.24</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="O2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -858,22 +873,22 @@
       <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>99.59</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>99.59</v>
       </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="O3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -911,22 +926,22 @@
       <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="8">
         <v>99.91</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>99.91</v>
       </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="O4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -964,22 +979,22 @@
       <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="8">
         <v>100</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <v>100</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1017,22 +1032,22 @@
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="N6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1070,22 +1085,22 @@
       <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="N7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1123,22 +1138,22 @@
       <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="N8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1176,22 +1191,22 @@
       <c r="K9" t="s">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="M9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1229,22 +1244,22 @@
       <c r="K10" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="M10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1282,22 +1297,22 @@
       <c r="K11" t="s">
         <v>33</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="M11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1335,22 +1350,22 @@
       <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="M12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1388,22 +1403,22 @@
       <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="M13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1441,22 +1456,22 @@
       <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="M14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1494,22 +1509,22 @@
       <c r="K15" t="s">
         <v>33</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1547,22 +1562,22 @@
       <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
-        <v>37</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="M16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1600,22 +1615,22 @@
       <c r="K17" t="s">
         <v>33</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="M17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1653,22 +1668,22 @@
       <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q18" t="s">
+      <c r="N18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1706,22 +1721,22 @@
       <c r="K19" t="s">
         <v>33</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="N19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1759,22 +1774,22 @@
       <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="s">
+      <c r="N20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1812,22 +1827,22 @@
       <c r="K21" t="s">
         <v>33</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q21" t="s">
+      <c r="N21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1865,22 +1880,22 @@
       <c r="K22" t="s">
         <v>33</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="N22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1918,22 +1933,22 @@
       <c r="K23" t="s">
         <v>33</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q23" t="s">
+      <c r="N23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1971,22 +1986,22 @@
       <c r="K24" t="s">
         <v>48</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="M24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2024,22 +2039,22 @@
       <c r="K25" t="s">
         <v>49</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="N25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2077,22 +2092,22 @@
       <c r="K26" t="s">
         <v>50</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="M26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2130,22 +2145,22 @@
       <c r="K27" t="s">
         <v>51</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M27" t="s">
-        <v>37</v>
-      </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="M27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2183,22 +2198,22 @@
       <c r="K28" t="s">
         <v>35</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="N28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2236,22 +2251,22 @@
       <c r="K29" t="s">
         <v>35</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N29" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="N29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2289,22 +2304,22 @@
       <c r="K30" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="Q30" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2342,22 +2357,22 @@
       <c r="K31" t="s">
         <v>35</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="Q31" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2395,22 +2410,22 @@
       <c r="K32" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2448,22 +2463,22 @@
       <c r="K33" t="s">
         <v>35</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2501,22 +2516,22 @@
       <c r="K34" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="Q34" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2554,29 +2569,132 @@
       <c r="K35" t="s">
         <v>35</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="7" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M2" r:id="rId1" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Adventure Log/0.24"/>
+    <hyperlink ref="M5" r:id="rId2" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Adventure Log/100"/>
+    <hyperlink ref="M3" r:id="rId3" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Adventure Log/99.59"/>
+    <hyperlink ref="M4" r:id="rId4" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Adventure Log/99.91"/>
+    <hyperlink ref="M6" r:id="rId5"/>
+    <hyperlink ref="M7" r:id="rId6"/>
+    <hyperlink ref="M18" r:id="rId7"/>
+    <hyperlink ref="M19" r:id="rId8"/>
+    <hyperlink ref="M20" r:id="rId9"/>
+    <hyperlink ref="M21" r:id="rId10"/>
+    <hyperlink ref="M22" r:id="rId11"/>
+    <hyperlink ref="M8" r:id="rId12"/>
+    <hyperlink ref="M23" r:id="rId13"/>
+    <hyperlink ref="M9" r:id="rId14"/>
+    <hyperlink ref="M10" r:id="rId15"/>
+    <hyperlink ref="M11" r:id="rId16"/>
+    <hyperlink ref="M12" r:id="rId17"/>
+    <hyperlink ref="M13" r:id="rId18"/>
+    <hyperlink ref="M14" r:id="rId19"/>
+    <hyperlink ref="M15" r:id="rId20"/>
+    <hyperlink ref="M16" r:id="rId21"/>
+    <hyperlink ref="M17" r:id="rId22"/>
+    <hyperlink ref="M24" r:id="rId23"/>
+    <hyperlink ref="M26" r:id="rId24"/>
+    <hyperlink ref="M27" r:id="rId25"/>
+    <hyperlink ref="M25" r:id="rId26"/>
+    <hyperlink ref="M28" r:id="rId27"/>
+    <hyperlink ref="M29" r:id="rId28"/>
+    <hyperlink ref="M30" r:id="rId29"/>
+    <hyperlink ref="M31" r:id="rId30"/>
+    <hyperlink ref="M32" r:id="rId31"/>
+    <hyperlink ref="M33" r:id="rId32"/>
+    <hyperlink ref="M34" r:id="rId33"/>
+    <hyperlink ref="M35" r:id="rId34"/>
+    <hyperlink ref="L2" r:id="rId35"/>
+    <hyperlink ref="L3" r:id="rId36"/>
+    <hyperlink ref="L4" r:id="rId37"/>
+    <hyperlink ref="L5" r:id="rId38"/>
+    <hyperlink ref="L6" r:id="rId39"/>
+    <hyperlink ref="L7" r:id="rId40"/>
+    <hyperlink ref="L8" r:id="rId41"/>
+    <hyperlink ref="L9" r:id="rId42"/>
+    <hyperlink ref="L10" r:id="rId43"/>
+    <hyperlink ref="L11" r:id="rId44"/>
+    <hyperlink ref="L12" r:id="rId45"/>
+    <hyperlink ref="L13" r:id="rId46"/>
+    <hyperlink ref="L14" r:id="rId47"/>
+    <hyperlink ref="L15" r:id="rId48"/>
+    <hyperlink ref="L16" r:id="rId49"/>
+    <hyperlink ref="L17" r:id="rId50"/>
+    <hyperlink ref="L18" r:id="rId51"/>
+    <hyperlink ref="L19" r:id="rId52"/>
+    <hyperlink ref="L20" r:id="rId53"/>
+    <hyperlink ref="L21" r:id="rId54"/>
+    <hyperlink ref="L22" r:id="rId55"/>
+    <hyperlink ref="L23" r:id="rId56"/>
+    <hyperlink ref="L24" r:id="rId57"/>
+    <hyperlink ref="L25" r:id="rId58"/>
+    <hyperlink ref="L26" r:id="rId59"/>
+    <hyperlink ref="L27" r:id="rId60"/>
+    <hyperlink ref="L28" r:id="rId61"/>
+    <hyperlink ref="L29" r:id="rId62"/>
+    <hyperlink ref="L30" r:id="rId63"/>
+    <hyperlink ref="L31" r:id="rId64"/>
+    <hyperlink ref="L32" r:id="rId65"/>
+    <hyperlink ref="L33" r:id="rId66"/>
+    <hyperlink ref="L34" r:id="rId67"/>
+    <hyperlink ref="L35" r:id="rId68"/>
+    <hyperlink ref="N2" r:id="rId69" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Map/0.24"/>
+    <hyperlink ref="N3" r:id="rId70" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Map/99.59"/>
+    <hyperlink ref="N4" r:id="rId71" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Map/99.91"/>
+    <hyperlink ref="N5" r:id="rId72" display="https://github.com/piloncillo/BOTW-Instant-Start/tree/main/Images/Map/100"/>
+    <hyperlink ref="N15" r:id="rId73"/>
+    <hyperlink ref="N6" r:id="rId74"/>
+    <hyperlink ref="N7" r:id="rId75"/>
+    <hyperlink ref="N8" r:id="rId76"/>
+    <hyperlink ref="N9" r:id="rId77"/>
+    <hyperlink ref="N10" r:id="rId78"/>
+    <hyperlink ref="N11" r:id="rId79"/>
+    <hyperlink ref="N12" r:id="rId80"/>
+    <hyperlink ref="N13" r:id="rId81"/>
+    <hyperlink ref="N14" r:id="rId82"/>
+    <hyperlink ref="N16" r:id="rId83"/>
+    <hyperlink ref="N17:N29" r:id="rId84" display="Regular"/>
+    <hyperlink ref="N30" r:id="rId85"/>
+    <hyperlink ref="N31:N35" r:id="rId86" display="Complete"/>
+    <hyperlink ref="O5" r:id="rId87"/>
+    <hyperlink ref="O30" r:id="rId88"/>
+    <hyperlink ref="O2" r:id="rId89"/>
+    <hyperlink ref="O6" r:id="rId90"/>
+    <hyperlink ref="O7:O29" r:id="rId91" display="Regular"/>
+    <hyperlink ref="O3:O4" r:id="rId92" display="Regular"/>
+    <hyperlink ref="O31:O35" r:id="rId93" display="Complete"/>
+    <hyperlink ref="P30" r:id="rId94"/>
+    <hyperlink ref="P31:P35" r:id="rId95" display="Complete"/>
+    <hyperlink ref="P2" r:id="rId96"/>
+    <hyperlink ref="P3:P29" r:id="rId97" display="Regular"/>
+    <hyperlink ref="Q2" r:id="rId98"/>
+    <hyperlink ref="Q3:Q29" r:id="rId99" display="Empty"/>
+    <hyperlink ref="Q30" r:id="rId100"/>
+    <hyperlink ref="Q31:Q35" r:id="rId101" display="Complete"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
